--- a/PRODUTOS/Mercearia Salgada/Mercearia Salgada - Cereais e Farináceos.xlsx
+++ b/PRODUTOS/Mercearia Salgada/Mercearia Salgada - Cereais e Farináceos.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E94"/>
+  <dimension ref="A1:F85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>Imagem</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>EAN</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -461,17 +466,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Farofa De Mandioca Yoki 400gr Tradicional</t>
+          <t>Canjiquinha Yoki 500g</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/11019ed3-a948-4e59-8076-b110aecea8eb.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/985f4342-ed2e-40aa-a9fb-c75f343872c7.jpg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7891095100316</t>
         </is>
       </c>
     </row>
@@ -488,7 +498,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Pipoca Micro Mant Cinema Yoki 100g</t>
+          <t>Pipoca Para Microondas Yoki 100g Toque Chef</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -498,7 +508,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f2aaa949-a3b5-479f-b05e-f3dd1e4d7860.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/392f69e8-d129-415f-9632-4ca1f8b2c5d9.jpg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7891095006274</t>
         </is>
       </c>
     </row>
@@ -515,17 +530,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Flocao De Milho Urbano 500g</t>
+          <t>Canjica Amarela Wally 500gr</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>R$ 2,79</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/99bd69e3-0580-4ae4-b50b-f977d2da8d81.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7848999b-263f-4e86-af79-a49ffa3a44e2.jpg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7896237500184</t>
         </is>
       </c>
     </row>
@@ -542,17 +562,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Milho P/pipoca Premium Wally 500g</t>
+          <t>Pipoca Microondas Kisabor 100g Natura</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bad430a9-d1d9-4dde-ad24-837a87e39c8d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d8042902-1eb3-4f41-aa84-0f0443059f70.jpg</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7898416527104</t>
         </is>
       </c>
     </row>
@@ -569,17 +594,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Pipoca Pop Corn Yoki Manteiga 100g</t>
+          <t>Farinha Mandioca Grossa Yoki 1kg</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 15,99</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c4494d4b-46e0-451e-8244-47609af3c2b2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a9adb546-572a-44aa-8475-e4b0cc65efe3.jpg</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7891095008421</t>
         </is>
       </c>
     </row>
@@ -596,7 +626,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Pipoca Pop Corn Yoki Natural 100g</t>
+          <t>Pipoca Microondas Yoki 100g Natural</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -606,7 +636,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3089aadc-ac38-4b3a-bc5a-f5f19bf6252a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/91e49481-53c1-4dd1-ae77-0fe08fcc23d0.jpg</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7891095100729</t>
         </is>
       </c>
     </row>
@@ -623,17 +658,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Milho Para Pipoca Premium Yoki 400g</t>
+          <t>Canjica Amarela Yoki 500gr</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>R$ 8,49</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f5f6a032-3caa-4fef-8c7e-50d5d51f164b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d8dc798d-a8e8-4b50-a72c-84df08c1b871.jpg</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7891095100118</t>
         </is>
       </c>
     </row>
@@ -650,17 +690,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Fuba Mimoso Wally 500gr</t>
+          <t>Pipoca Pop Corn Yoki Natural 100g</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8a9bd3c6-bdb9-45c5-b876-f312cb2adb01.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3089aadc-ac38-4b3a-bc5a-f5f19bf6252a.jpg</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7891095100125</t>
         </is>
       </c>
     </row>
@@ -677,17 +722,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Farinha Flocada Flocao Wally 500gr</t>
+          <t>Pipoca Microondas Yoki 100g Bacon</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 4,49</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b0e5119a-084d-4e7b-9d6a-dc78224e0601.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6db78fe3-66bb-4798-9996-3705deb096e0.jpg</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7891095100729</t>
         </is>
       </c>
     </row>
@@ -704,17 +754,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Farofa Pronta Da Terrinha 400gr Trad</t>
+          <t>Pipoca Pop Corn Yoki Manteiga 100g</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0315a26f-74f6-40e5-900b-f814f772b765.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c4494d4b-46e0-451e-8244-47609af3c2b2.jpg</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7891095100125</t>
         </is>
       </c>
     </row>
@@ -731,17 +786,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Pipoca Microondas Yoki 100g Natural</t>
+          <t>Fuba De Milho Pre Cozido Yoki 500g</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 9,98</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/91e49481-53c1-4dd1-ae77-0fe08fcc23d0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e9b470aa-f06a-46ed-9f03-6d54e3d772cb.jpg</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7891095200184</t>
         </is>
       </c>
     </row>
@@ -758,17 +818,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Farofa Pronta Kisabor 400g Mandioca</t>
+          <t>Fuba Yoki 500g</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>R$ 6,49</t>
+          <t>R$ 7,49</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/316165c1-d8af-4e1e-866d-2823dee1a205.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8d9bd092-dc48-48e2-ab66-8ee60e043a37.jpg</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7891095200450</t>
         </is>
       </c>
     </row>
@@ -785,17 +850,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Milho Para Pipoca Yoki 400g Tradicional</t>
+          <t>Farinha De Mandioca Crua Yoki 500g</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/976638ed-c9d7-4f1e-876a-ca0a3194d300.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d6a3e965-5f8f-4d63-8209-87fd27503489.jpg</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7891095400423</t>
         </is>
       </c>
     </row>
@@ -812,17 +882,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Kimilho Flocao Yoki 500g</t>
+          <t>Farinha De Rosca Yoki 500g</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8158ac85-33b3-40b7-a075-85acf11ef24c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/af3fc640-dacd-472f-83cb-21f1463a56f1.jpg</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7891095400423</t>
         </is>
       </c>
     </row>
@@ -839,17 +914,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Pipoca Para Microondas Yoki 100g Toque Chef</t>
+          <t>Trigo Para Kibe Yoki 500g</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/392f69e8-d129-415f-9632-4ca1f8b2c5d9.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b396b21d-7923-4f4f-9a47-fa5af8682be2.jpg</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7891095400751</t>
         </is>
       </c>
     </row>
@@ -866,17 +946,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Milharina Quaker 500g</t>
+          <t>Farinha De Mandioca Grossa Wally 1kg</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/82f16d35-a8df-4a52-9c7c-bd5f776fb38f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a3b400c3-0da3-46ab-ab07-8bb83fe05bd1.jpg</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7891095008421</t>
         </is>
       </c>
     </row>
@@ -893,17 +978,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Farinha De Rosca Wally 500gr</t>
+          <t>Farinha De Mandioca Fina Wally 1kg</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>R$ 9,69</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0f5e24e9-c658-4efb-a27f-c8ce670a7a4d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7b952b89-96dd-49b5-af95-a4b90942a5c8.jpg</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7896237500238</t>
         </is>
       </c>
     </row>
@@ -920,17 +1010,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Farinha De Milho Amarela Wally 500gr</t>
+          <t>Fecula De Batata Wally 200g</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>R$ 6,49</t>
+          <t>R$ 9,69</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6792383f-0068-4533-a59a-05cd080326c6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7150e1b2-5c08-468e-a41d-6d5406a0de42.jpg</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7896237504700</t>
         </is>
       </c>
     </row>
@@ -947,17 +1042,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Grao De Bico Camil 500g</t>
+          <t>Pipoca Micro Mant Cinema Yoki 100g</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/99be219a-c0ba-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f2aaa949-a3b5-479f-b05e-f3dd1e4d7860.jpg</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7891095008452</t>
         </is>
       </c>
     </row>
@@ -974,17 +1074,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Flocao De Milho Da Terrinha 400g</t>
+          <t>Polentina Quaker 500g</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1879bf93-c1ce-4c7c-a318-c697053c0a5a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e83ab53e-52b6-418a-8175-c6e5bc7a8a03.jpg</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7894321631011</t>
         </is>
       </c>
     </row>
@@ -1001,17 +1106,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Fuba Yoki 500g</t>
+          <t>Milharina Quaker 500g</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>R$ 7,49</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8d9bd092-dc48-48e2-ab66-8ee60e043a37.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/82f16d35-a8df-4a52-9c7c-bd5f776fb38f.jpg</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7894321632032</t>
         </is>
       </c>
     </row>
@@ -1028,17 +1138,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Lentilha Seca Camil 400g</t>
+          <t>Popcorn P/ Micro Yoki 50g Sal</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 3,49</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6313a385-e1a6-4a1a-b775-2f56c221e14e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4903d608-bfa6-42b3-a2ac-4df66699f225.jpg</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7891095007943</t>
         </is>
       </c>
     </row>
@@ -1055,17 +1170,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Fuba Mimoso Wally 1kg</t>
+          <t>Ervilha Seca Camil 500g</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>R$ 8,49</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8f3787e4-07a9-4cc8-8514-2f57bf3fe720.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cab73c93-fb87-43b1-aaaa-1b29f50470cb.jpg</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7896006750710</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1202,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Polvilho Doce Wally 500gr</t>
+          <t>Grao De Bico Camil 500g</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/78cef727-21dc-448f-b66a-8561fe55940c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/99be219a-c0ba-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7896006750734</t>
         </is>
       </c>
     </row>
@@ -1109,17 +1234,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Grao De Bico Wally 500g</t>
+          <t>Fuba Mimoso Wally 1kg</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>R$ 15,99</t>
+          <t>R$ 8,49</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c8b8a3b7-a0f7-4c38-99be-0b52043a4934.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8f3787e4-07a9-4cc8-8514-2f57bf3fe720.jpg</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7896237500306</t>
         </is>
       </c>
     </row>
@@ -1136,17 +1266,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Farinha De Mandioca Fina Wally 500gr</t>
+          <t>Canjica Wally 500g</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>R$ 9,69</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a0e8e9b9-5cc2-4fb5-b7bc-824549092227.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4f8806e0-f398-45a8-b348-9eff905c25d6.jpg</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7896237500191</t>
         </is>
       </c>
     </row>
@@ -1163,17 +1298,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Farinha De Mandioca Crua Yoki 500g</t>
+          <t>Farinha De Mandioca Torrada Wally 500g</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 9,69</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d6a3e965-5f8f-4d63-8209-87fd27503489.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/73cb177b-c064-4790-a50d-ab6bcea7f725.jpg</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7896237500238</t>
         </is>
       </c>
     </row>
@@ -1190,17 +1330,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Milho Para Pipoca Da Terrinha 400g</t>
+          <t>Farinha De Milho Amarela Wally 500gr</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>R$ 4,49</t>
+          <t>R$ 6,49</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f3184ca0-c7a9-4a71-82b6-773e8b5bddd2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6792383f-0068-4533-a59a-05cd080326c6.jpg</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7896237500252</t>
         </is>
       </c>
     </row>
@@ -1217,17 +1362,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Coco Ralado Umido Adoçado Da Terrinha 100g</t>
+          <t>Farinha De Rosca Wally 500gr</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 9,69</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/19f935ea-abbf-47ed-9e68-ba43113f54c4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0f5e24e9-c658-4efb-a27f-c8ce670a7a4d.jpg</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7896237500276</t>
         </is>
       </c>
     </row>
@@ -1244,17 +1394,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Trigo Para Kibe Yoki 500g</t>
+          <t>Fuba Mimoso Wally 500gr</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b396b21d-7923-4f4f-9a47-fa5af8682be2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8a9bd3c6-bdb9-45c5-b876-f312cb2adb01.jpg</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7896237500290</t>
         </is>
       </c>
     </row>
@@ -1271,17 +1426,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Farinha De Mandioca Grossa Wally 1kg</t>
+          <t>Grao De Bico Wally 500g</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 15,99</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a3b400c3-0da3-46ab-ab07-8bb83fe05bd1.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c8b8a3b7-a0f7-4c38-99be-0b52043a4934.jpg</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7896237500320</t>
         </is>
       </c>
     </row>
@@ -1298,17 +1458,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Farofa Art Da Terrinha 300g Trad</t>
+          <t>Lentilha Seca Wally 500gr</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 18,99</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3492c143-7414-4f58-bdf5-6a157a85034b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d78d3331-8585-4237-a00e-59fe2f905e78.jpg</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7896024210180</t>
         </is>
       </c>
     </row>
@@ -1325,17 +1490,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Trigo Para Kibe Wally 500gr</t>
+          <t>Polvilho Azedo Wally 500gr</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/64154a79-3929-44af-b088-cf67da8a384f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/37d563a4-f6e8-46ca-8cd9-21c5ca412513.jpg</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7896237500368</t>
         </is>
       </c>
     </row>
@@ -1352,7 +1522,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Polvilho Azedo Wally 500gr</t>
+          <t>Polvilho Doce Wally 500gr</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1362,7 +1532,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/37d563a4-f6e8-46ca-8cd9-21c5ca412513.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/78cef727-21dc-448f-b66a-8561fe55940c.jpg</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7896237500375</t>
         </is>
       </c>
     </row>
@@ -1379,17 +1554,22 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Flocos De Milho Wally 500gr</t>
+          <t>Trigo Para Kibe Wally 500gr</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8168f691-ef74-4c98-8b26-79ae73c50388.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/64154a79-3929-44af-b088-cf67da8a384f.jpg</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7896237500405</t>
         </is>
       </c>
     </row>
@@ -1406,17 +1586,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Farinha De Mandioca Torrada Wally 500g</t>
+          <t>Milho P/pipoca Premium Wally 500g</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>R$ 9,69</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/73cb177b-c064-4790-a50d-ab6bcea7f725.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bad430a9-d1d9-4dde-ad24-837a87e39c8d.jpg</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7896237500474</t>
         </is>
       </c>
     </row>
@@ -1433,17 +1618,22 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Canjica Wally 500g</t>
+          <t>Flocos De Milho Wally 500gr</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4f8806e0-f398-45a8-b348-9eff905c25d6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8168f691-ef74-4c98-8b26-79ae73c50388.jpg</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7896237504847</t>
         </is>
       </c>
     </row>
@@ -1460,17 +1650,22 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Farinha De Arroz Urbano S/gluten 1kg</t>
+          <t>Pure De Batata Wally 150g</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2a081979-761a-4fe2-8353-1ce9e8745f62.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3fdd190c-f5d4-4e45-98ee-3145378d7818.jpg</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7896237504809</t>
         </is>
       </c>
     </row>
@@ -1487,17 +1682,22 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Farinha De Rosca Yoki 500g</t>
+          <t>Pipoca Pop Corn Yoki Cob Caramelo 160g</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/af3fc640-dacd-472f-83cb-21f1463a56f1.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/11e61516-a239-4c5c-9e8d-e67b5038b423.jpg</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7891095015290</t>
         </is>
       </c>
     </row>
@@ -1514,17 +1714,22 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Farinha De Mandioca Fina Wally 1kg</t>
+          <t>Pipoca Microondas Kisabor 100g Mant</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7b952b89-96dd-49b5-af95-a4b90942a5c8.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9a1c09bd-b1e8-4e58-a5cd-51541e91ff3a.jpg</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7898416527081</t>
         </is>
       </c>
     </row>
@@ -1541,17 +1746,22 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Farofa Pronta Da Terrinha 400gr Apimenta</t>
+          <t>Mistura P/ Empanar Kisabor 300g</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9fdd402b-a89b-4635-abe2-5c61b8af2578.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fb6c01dc-c0b8-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7898416521300</t>
         </is>
       </c>
     </row>
@@ -1568,17 +1778,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Polentina Quaker 500g</t>
+          <t>Farinha Flocada Flocao Wally 500gr</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e83ab53e-52b6-418a-8175-c6e5bc7a8a03.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b0e5119a-084d-4e7b-9d6a-dc78224e0601.jpg</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7896237509699</t>
         </is>
       </c>
     </row>
@@ -1595,17 +1810,22 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Farinha Mand Grossa Wally 500gr</t>
+          <t>Milho Puro Kisabor 500g</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>R$ 8,69</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/739d191c-dfae-46e0-8700-37e7b0918607.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1fc8de15-6a37-4d29-957e-5f8b003b7412.jpg</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7898416521010</t>
         </is>
       </c>
     </row>
@@ -1622,17 +1842,22 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Pure De Batata Wally 150g</t>
+          <t>Farofa Art Da Terrinha 300g Trad</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3fdd190c-f5d4-4e45-98ee-3145378d7818.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3492c143-7414-4f58-bdf5-6a157a85034b.jpg</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7898960982091</t>
         </is>
       </c>
     </row>
@@ -1649,17 +1874,22 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Farinha Panko Flocada Wally 200g</t>
+          <t>Farofa Art Da Terrinha 300g Apimentada</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/61843590-4e94-4146-bcc4-5f418cd88b11.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3cb8dd01-2319-49c2-bb50-7825ba995eff.jpg</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7898960982091</t>
         </is>
       </c>
     </row>
@@ -1676,17 +1906,22 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Pipoca Microondas Yoki 100g Bacon</t>
+          <t>Amendoim Bco Wally 500g</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>R$ 4,49</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6db78fe3-66bb-4798-9996-3705deb096e0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7b8def9e-1b0c-4226-ad67-e3968c39e8e2.jpg</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7896237505660</t>
         </is>
       </c>
     </row>
@@ -1703,17 +1938,22 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Ervilha Seca Camil 500g</t>
+          <t>Fuba Pre Cozido Wally 500gr</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cab73c93-fb87-43b1-aaaa-1b29f50470cb.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/05cce4b7-08a0-4e45-9703-fca2e7b4afc6.jpg</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7896237505684</t>
         </is>
       </c>
     </row>
@@ -1730,17 +1970,22 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Farofa Pronta De Milho Yoki 400g</t>
+          <t>Farofa Pronta Da Terrinha 400gr Trad</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6be05627-511b-4b37-b79c-ee8b9b1d0b2b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0315a26f-74f6-40e5-900b-f814f772b765.jpg</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7898960982213</t>
         </is>
       </c>
     </row>
@@ -1757,17 +2002,22 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Grão De Bico Urbano 500g</t>
+          <t>Farofa Pronta Da Terrinha 400gr Apimenta</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b5e4a1b0-c7ba-4521-b28a-1d1fb7b76309.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9fdd402b-a89b-4635-abe2-5c61b8af2578.jpg</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7898960982213</t>
         </is>
       </c>
     </row>
@@ -1784,17 +2034,22 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Amendoim Bco Wally 500g</t>
+          <t>Popcorn P/micro Yoki 50gr Manteiga</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 3,49</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7b8def9e-1b0c-4226-ad67-e3968c39e8e2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e43cd142-b2c8-45ad-9f0f-52fdb6fb62a4.jpg</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7891095029723</t>
         </is>
       </c>
     </row>
@@ -1811,17 +2066,22 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Milho Puro Kisabor 500g</t>
+          <t>Popcorn P/micro Yoki 50gr Natural</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 3,49</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1fc8de15-6a37-4d29-957e-5f8b003b7412.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a56bd0f6-cb23-401d-8ac0-dcee74fe61f8.jpg</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7891095029716</t>
         </is>
       </c>
     </row>
@@ -1838,17 +2098,22 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Lentilha Seca Wally 500gr</t>
+          <t>Farinha De Arroz Urbano S/gluten 1kg</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>R$ 18,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d78d3331-8585-4237-a00e-59fe2f905e78.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2a081979-761a-4fe2-8353-1ce9e8745f62.jpg</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7896038350056</t>
         </is>
       </c>
     </row>
@@ -1865,17 +2130,22 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Flocão De Milho Kicaldo 400g</t>
+          <t>Flocao De Arroz Urbano 500g S/ Gluten</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>R$ 2,49</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/69d6b6f0-8fd4-4890-a3fb-b47551c2dea0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/205a63a8-b04a-4d8d-b2d1-ea8cda0a07c8.jpg</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7896038360192</t>
         </is>
       </c>
     </row>
@@ -1892,17 +2162,22 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Milho P/ Pipoca Premium Kicaldo 400g</t>
+          <t>Farinha De Arroz Urbano S/glut 1kg Integ</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/598f1100-c905-41df-a7a4-dcb742c83b8d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/25babf76-cad6-4ae4-a2d0-1484463b96b0.jpg</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>7896038351053</t>
         </is>
       </c>
     </row>
@@ -1919,17 +2194,22 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Pipoca Microondas Kisabor 100g Mant</t>
+          <t>Farinha De Arroz Urbano S/glut 1kg Especial</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9a1c09bd-b1e8-4e58-a5cd-51541e91ff3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/06824043-220d-48a1-9570-cc6601359499.jpg</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>7896038300112</t>
         </is>
       </c>
     </row>
@@ -1946,17 +2226,22 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Mistura P/ Empanar Kisabor 300g</t>
+          <t>Amendoim Branco Yoki 500g</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 18,99</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fb6c01dc-c0b8-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b476959b-c0b4-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7891095011605</t>
         </is>
       </c>
     </row>
@@ -1973,17 +2258,22 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Canjica Branca Urbano 500g</t>
+          <t>Farofa Pronta Kisabor 400g Mandioca</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 6,49</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fe6f7c94-477f-4c17-b486-2272bf3ae1c3.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/316165c1-d8af-4e1e-866d-2823dee1a205.jpg</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7898416527548</t>
         </is>
       </c>
     </row>
@@ -2000,17 +2290,22 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Flocão De Milho Não Transgênico Urbano 500g</t>
+          <t>Flocao De Milho Urbano 500g</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 2,79</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/355bab3b-a5ae-4904-8c8d-ac69ec134e49.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/99bd69e3-0580-4ae4-b50b-f977d2da8d81.jpg</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>7896038300075</t>
         </is>
       </c>
     </row>
@@ -2027,17 +2322,22 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Pipoca Pop Corn Yoki Cob Caramelo 160g</t>
+          <t>Farofa Gourmet Kamar 280g C/ Alho</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/11e61516-a239-4c5c-9e8d-e67b5038b423.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ada4bfce-7e3c-4fd0-9886-a17780b8b850.jpg</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>7898960660340</t>
         </is>
       </c>
     </row>
@@ -2054,17 +2354,22 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Farofa Art Da Terrinha 300g Apimentada</t>
+          <t>Farofa Gourmet Kamar 280g C/ Bacon</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3cb8dd01-2319-49c2-bb50-7825ba995eff.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6cce5a73-5fbb-4694-9667-6004df722403.jpg</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>7898960660333</t>
         </is>
       </c>
     </row>
@@ -2081,17 +2386,22 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Farinha Mandioca Grossa Yoki 1kg</t>
+          <t>Farofa Gourmet Kamar 280g C/ Pimenta</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>R$ 15,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a9adb546-572a-44aa-8475-e4b0cc65efe3.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c099faa0-9b9a-4baa-9c09-e4b662c64412.jpg</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>7898960660340</t>
         </is>
       </c>
     </row>
@@ -2108,7 +2418,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Farofa Gourmet Kamar 280g C/ Bacon</t>
+          <t>Farofa Gourmet Kamar 280g Tradicional</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2118,7 +2428,12 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6cce5a73-5fbb-4694-9667-6004df722403.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0938d3a5-a0c1-4b0c-bae0-b5cab0ab99cb.jpg</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>7898960660333</t>
         </is>
       </c>
     </row>
@@ -2135,17 +2450,22 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Popcorn P/micro Yoki 50gr Manteiga</t>
+          <t>Farinha Panko Flocada Wally 200g</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>R$ 3,49</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e43cd142-b2c8-45ad-9f0f-52fdb6fb62a4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/61843590-4e94-4146-bcc4-5f418cd88b11.jpg</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>7896237509699</t>
         </is>
       </c>
     </row>
@@ -2162,17 +2482,22 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Coco Ralado Umido Adoçado Da Terrinha50g</t>
+          <t>Milho Para Pipoca Premium Yoki 400g</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 8,49</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/984422f4-df4e-4552-af67-3179bb225cad.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f5f6a032-3caa-4fef-8c7e-50d5d51f164b.jpg</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>7896237500474</t>
         </is>
       </c>
     </row>
@@ -2189,17 +2514,22 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Fuba Pre Cozido Wally 500gr</t>
+          <t>Farofa Pronta De Milho Yoki 400g</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/05cce4b7-08a0-4e45-9703-fca2e7b4afc6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6be05627-511b-4b37-b79c-ee8b9b1d0b2b.jpg</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>7891095911448</t>
         </is>
       </c>
     </row>
@@ -2216,17 +2546,22 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Fuba De Milho Pre Cozido Yoki 500g</t>
+          <t>Canjica Cristal 400g</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>R$ 9,98</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e9b470aa-f06a-46ed-9f03-6d54e3d772cb.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dc641b3a-7330-44e5-b698-6b88b789e566.jpg</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>7891095911264</t>
         </is>
       </c>
     </row>
@@ -2243,17 +2578,22 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Canjica Amarela Wally 500gr</t>
+          <t>Lentilha Seca Camil 400g</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7848999b-263f-4e86-af79-a49ffa3a44e2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6313a385-e1a6-4a1a-b775-2f56c221e14e.jpg</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>7896024210180</t>
         </is>
       </c>
     </row>
@@ -2270,17 +2610,22 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Flocao De Arroz Urbano 500g S/ Gluten</t>
+          <t>Coco Ralado Umido Adoçado Da Terrinha 100g</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/205a63a8-b04a-4d8d-b2d1-ea8cda0a07c8.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/19f935ea-abbf-47ed-9e68-ba43113f54c4.jpg</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>7896004400013</t>
         </is>
       </c>
     </row>
@@ -2297,17 +2642,22 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Farinha De Arroz Urbano S/glut 1kg Especial</t>
+          <t>Flocao De Milho Da Terrinha 400g</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 2,99</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/06824043-220d-48a1-9570-cc6601359499.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1879bf93-c1ce-4c7c-a318-c697053c0a5a.jpg</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>7896116900104</t>
         </is>
       </c>
     </row>
@@ -2324,17 +2674,22 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Popcorn P/ Micro Yoki 50g Sal</t>
+          <t>Flocão De Milho Não Transgênico Urbano 500g</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>R$ 3,49</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4903d608-bfa6-42b3-a2ac-4df66699f225.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/355bab3b-a5ae-4904-8c8d-ac69ec134e49.jpg</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>7896038300075</t>
         </is>
       </c>
     </row>
@@ -2351,17 +2706,22 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Farofa Gourmet Kamar 280g C/ Pimenta</t>
+          <t>Canjica Branca Urbano 500g</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c099faa0-9b9a-4baa-9c09-e4b662c64412.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fe6f7c94-477f-4c17-b486-2272bf3ae1c3.jpg</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>7896401183168</t>
         </is>
       </c>
     </row>
@@ -2378,17 +2738,22 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Pipoca Microondas Kisabor 100g Natura</t>
+          <t>Grão De Bico Urbano 500g</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d8042902-1eb3-4f41-aa84-0f0443059f70.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b5e4a1b0-c7ba-4521-b28a-1d1fb7b76309.jpg</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>7896401183151</t>
         </is>
       </c>
     </row>
@@ -2405,7 +2770,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Farofa Gourmet Kamar 280g C/ Alho</t>
+          <t>Mucilon 5 Cereais Zero Nestle 180g</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2415,7 +2780,12 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ada4bfce-7e3c-4fd0-9886-a17780b8b850.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0842ae26-2d7e-4cd2-b8d7-fba092a2ad0e.jpg</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>7891000319505</t>
         </is>
       </c>
     </row>
@@ -2432,17 +2802,22 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Polenta Divella 500g</t>
+          <t>Milho P/ Pipoca Premium Kicaldo 400g</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7a1d7308-fd52-4101-a0a4-6ade95274435.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/598f1100-c905-41df-a7a4-dcb742c83b8d.jpg</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>7896237500474</t>
         </is>
       </c>
     </row>
@@ -2459,7 +2834,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Farinha De Arroz Urbano S/glut 1kg Integ</t>
+          <t>Farofa De Mandioca Yoki Caseirissima 200g C/banana Crocante</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2469,7 +2844,12 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/25babf76-cad6-4ae4-a2d0-1484463b96b0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/433300db-a1bd-4f16-80c9-1607206530f5.jpg</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>7891095911660</t>
         </is>
       </c>
     </row>
@@ -2486,17 +2866,22 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Fecula De Batata Wally 200g</t>
+          <t>Farofa De Mandioca Yoki Caseirissima 200g C/cebola Crocante</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>R$ 9,69</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7150e1b2-5c08-468e-a41d-6d5406a0de42.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b48b1749-d7da-456d-8736-fff307ea2bd5.jpg</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>7891095911660</t>
         </is>
       </c>
     </row>
@@ -2513,17 +2898,22 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Popcorn P/micro Yoki 50gr Natural</t>
+          <t>Farofa De Mandioca Yoki Caseirissima 200g C/costelinha Defumada</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>R$ 3,49</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a56bd0f6-cb23-401d-8ac0-dcee74fe61f8.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/37bd634b-912a-46b3-a329-ce0c6f66cb7a.jpg</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>7891095911660</t>
         </is>
       </c>
     </row>
@@ -2540,17 +2930,22 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Amendoim Branco Yoki 500g</t>
+          <t>Farinha De Mandioca Fina Kicaldo 1kg</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>R$ 18,99</t>
+          <t>R$ 7,49</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b476959b-c0b4-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2bddae69-54c7-4e02-9c25-b23f304f533b.jpg</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>7896116900661</t>
         </is>
       </c>
     </row>
@@ -2567,7 +2962,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Farinha De Mandioca Fina Kicaldo 1kg</t>
+          <t>Farinha De Mandioca Grossa Kicaldo 1kg</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2577,7 +2972,12 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2bddae69-54c7-4e02-9c25-b23f304f533b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/71e7a5a6-ef08-4e28-9200-fc1a59dcb836.jpg</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>7896116900661</t>
         </is>
       </c>
     </row>
@@ -2594,17 +2994,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Farofa Gourmet Kamar 280g Tradicional</t>
+          <t>Flocão De Milho Kicaldo 400g</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 2,49</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0938d3a5-a0c1-4b0c-bae0-b5cab0ab99cb.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/69d6b6f0-8fd4-4890-a3fb-b47551c2dea0.jpg</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>7896116900104</t>
         </is>
       </c>
     </row>
@@ -2621,17 +3026,22 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Canjiquinha Yoki 500g</t>
+          <t>Farofa Caseira Bom Gosto 300g Bacon</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/985f4342-ed2e-40aa-a9fb-c75f343872c7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b6ebf9cd-d9e1-46e2-9045-ebc9e3d0e76a.jpg</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>7898061680919</t>
         </is>
       </c>
     </row>
@@ -2648,17 +3058,22 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Pure De Batata Instantaneo Yoki 180g</t>
+          <t>Farofa Caseira Bom Gosto 300g Costelinha Defumada</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3624bced-3e26-4419-807c-b06d7983d263.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0ecc98b3-be83-46be-af09-228ff4b6a17b.jpg</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>7898061680919</t>
         </is>
       </c>
     </row>
@@ -2675,17 +3090,22 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Canjica Cristal 400g</t>
+          <t>Farofa Caseira Bom Gosto 300g Picante</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dc641b3a-7330-44e5-b698-6b88b789e566.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e352e69c-cfa2-40e0-ba17-3be024497528.jpg</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>7898061680926</t>
         </is>
       </c>
     </row>
@@ -2702,260 +3122,22 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Farofa De Mandioca Yoki Caseirissima 200g C/banana Crocante</t>
+          <t>Farofa Caseira Bom Gosto 300g Tradicional</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/433300db-a1bd-4f16-80c9-1607206530f5.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Cereais e Farináceos</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Canjica Amarela Yoki 500gr</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>R$ 14,99</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d8dc798d-a8e8-4b50-a72c-84df08c1b871.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Cereais e Farináceos</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Farofa De Mandioca Yoki Caseirissima 200g C/cebola Crocante</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>R$ 9,99</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b48b1749-d7da-456d-8736-fff307ea2bd5.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Cereais e Farináceos</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>Farofa De Mandioca Yoki Caseirissima 200g C/costelinha Defumada</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>R$ 9,99</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/37bd634b-912a-46b3-a329-ce0c6f66cb7a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Cereais e Farináceos</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>Farofa Mandioca Sora Caseiro 300g</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>R$ 10,99</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/04090eb6-8cc2-4e1c-9a14-2798bbe84a0e.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Cereais e Farináceos</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>Mucilon 5 Cereais Zero Nestle 180g</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>R$ 7,99</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0842ae26-2d7e-4cd2-b8d7-fba092a2ad0e.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Cereais e Farináceos</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>Farofa Caseira Bom Gosto 300g Bacon</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>R$ 8,99</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b6ebf9cd-d9e1-46e2-9045-ebc9e3d0e76a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Cereais e Farináceos</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Farofa Caseira Bom Gosto 300g Costelinha Defumada</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>R$ 8,99</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0ecc98b3-be83-46be-af09-228ff4b6a17b.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Cereais e Farináceos</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Farofa Caseira Bom Gosto 300g Picante</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>R$ 7,99</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e352e69c-cfa2-40e0-ba17-3be024497528.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Cereais e Farináceos</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Farofa Caseira Bom Gosto 300g Tradicional</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>R$ 7,99</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
           <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/02b80ca5-3c7f-4480-9ed9-67b76acc4c51.jpg</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>7898061680919</t>
         </is>
       </c>
     </row>
